--- a/biology/Botanique/Lythrum_tribracteatum/Lythrum_tribracteatum.xlsx
+++ b/biology/Botanique/Lythrum_tribracteatum/Lythrum_tribracteatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lythrum tribracteatum ou Lythrum à trois bractées[1] est une espèce végétale de la famille des Lythraceae. Son aspect général diffère grandement du Lythrum le plus commun, la salicaire (Lythrum salicaria L.). C'est une espèce beaucoup plus petite et annuelle (alors que la salicaire est vivace), elle est aussi beaucoup plus rare.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lythrum tribracteatum ou Lythrum à trois bractées est une espèce végétale de la famille des Lythraceae. Son aspect général diffère grandement du Lythrum le plus commun, la salicaire (Lythrum salicaria L.). C'est une espèce beaucoup plus petite et annuelle (alors que la salicaire est vivace), elle est aussi beaucoup plus rare.
 </t>
         </is>
       </c>
